--- a/analysis/pre_gemini_data/participant280/med.xlsx
+++ b/analysis/pre_gemini_data/participant280/med.xlsx
@@ -17,16 +17,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="1">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -37,7 +34,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -45,21 +42,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -425,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AA11"/>
+  <dimension ref="A1:AA9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,137 +422,133 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Unnamed: 0</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="A1" t="inlineStr"/>
+      <c r="B1" t="inlineStr">
         <is>
           <t>arg1</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" t="inlineStr">
         <is>
           <t>arg2</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" t="inlineStr">
         <is>
           <t>arg3</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="E1" t="inlineStr">
         <is>
           <t>assign</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="F1" t="inlineStr">
         <is>
           <t>code</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="G1" t="inlineStr">
         <is>
           <t>condbody</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="H1" t="inlineStr">
         <is>
           <t>condbody2</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="I1" t="inlineStr">
         <is>
           <t>condstat3</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="J1" t="inlineStr">
         <is>
           <t>condstate2</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="K1" t="inlineStr">
         <is>
           <t>condstatte</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="L1" t="inlineStr">
         <is>
           <t>gemini</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="M1" t="inlineStr">
         <is>
           <t>literal</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="N1" t="inlineStr">
         <is>
           <t>literal2</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="O1" t="inlineStr">
         <is>
           <t>loopbody</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="P1" t="inlineStr">
         <is>
           <t>loopstate</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="Q1" t="inlineStr">
         <is>
           <t>methdocall</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="R1" t="inlineStr">
         <is>
           <t>methdocall2</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="S1" t="inlineStr">
         <is>
           <t>methodcall3</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="T1" t="inlineStr">
         <is>
           <t>methoddec</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="U1" t="inlineStr">
         <is>
           <t>param</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="V1" t="inlineStr">
         <is>
           <t>summary</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="W1" t="inlineStr">
         <is>
           <t>var1</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="X1" t="inlineStr">
         <is>
           <t>var2</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="Y1" t="inlineStr">
         <is>
           <t>var3</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="Z1" t="inlineStr">
         <is>
           <t>var4</t>
         </is>
       </c>
-      <c r="AA1" s="1" t="inlineStr">
+      <c r="AA1" t="inlineStr">
         <is>
           <t>var5</t>
         </is>
@@ -610,69 +594,65 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>6</v>
       </c>
-      <c r="D3" t="n">
-        <v>0</v>
-      </c>
+      <c r="D3" t="inlineStr"/>
       <c r="E3" t="n">
         <v>9</v>
       </c>
       <c r="F3" t="n">
-        <v>61</v>
+        <v>35</v>
       </c>
       <c r="G3" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H3" t="n">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="I3" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J3" t="n">
         <v>12</v>
       </c>
       <c r="K3" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="L3" t="n">
         <v>42</v>
       </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
+      <c r="M3" t="inlineStr"/>
       <c r="N3" t="n">
         <v>4</v>
       </c>
       <c r="O3" t="n">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="P3" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="Q3" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="R3" t="n">
         <v>1</v>
       </c>
       <c r="S3" t="inlineStr"/>
       <c r="T3" t="n">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="U3" t="inlineStr"/>
       <c r="V3" t="n">
-        <v>89</v>
+        <v>33</v>
       </c>
       <c r="W3" t="n">
         <v>4</v>
       </c>
       <c r="X3" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="Y3" t="n">
         <v>3</v>
@@ -689,69 +669,65 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C4" t="n">
         <v>9</v>
       </c>
-      <c r="D4" t="n">
-        <v>1</v>
-      </c>
+      <c r="D4" t="inlineStr"/>
       <c r="E4" t="n">
         <v>14</v>
       </c>
       <c r="F4" t="n">
-        <v>151</v>
+        <v>105</v>
       </c>
       <c r="G4" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H4" t="n">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="I4" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J4" t="n">
         <v>19</v>
       </c>
       <c r="K4" t="n">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="L4" t="n">
         <v>387</v>
       </c>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
+      <c r="M4" t="inlineStr"/>
       <c r="N4" t="n">
         <v>7</v>
       </c>
       <c r="O4" t="n">
-        <v>80</v>
+        <v>59</v>
       </c>
       <c r="P4" t="n">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="Q4" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="R4" t="n">
         <v>3</v>
       </c>
       <c r="S4" t="inlineStr"/>
       <c r="T4" t="n">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="U4" t="inlineStr"/>
       <c r="V4" t="n">
-        <v>429</v>
+        <v>136</v>
       </c>
       <c r="W4" t="n">
         <v>5</v>
       </c>
       <c r="X4" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="Y4" t="n">
         <v>5</v>
@@ -768,69 +744,65 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1134.48</v>
+        <v>133.35</v>
       </c>
       <c r="C5" t="n">
         <v>2661.26</v>
       </c>
-      <c r="D5" t="n">
-        <v>208.55</v>
-      </c>
+      <c r="D5" t="inlineStr"/>
       <c r="E5" t="n">
         <v>8609.059999999999</v>
       </c>
       <c r="F5" t="n">
-        <v>59572.31</v>
+        <v>42930.67</v>
       </c>
       <c r="G5" t="n">
-        <v>9994.43</v>
+        <v>9893.76</v>
       </c>
       <c r="H5" t="n">
-        <v>9269</v>
+        <v>7208.49</v>
       </c>
       <c r="I5" t="n">
-        <v>2677.93</v>
+        <v>2511.12</v>
       </c>
       <c r="J5" t="n">
         <v>8417.299999999999</v>
       </c>
       <c r="K5" t="n">
-        <v>15516.25</v>
+        <v>11495.4</v>
       </c>
       <c r="L5" t="n">
         <v>102997.38</v>
       </c>
-      <c r="M5" t="n">
-        <v>250.24</v>
-      </c>
+      <c r="M5" t="inlineStr"/>
       <c r="N5" t="n">
         <v>2169.13</v>
       </c>
       <c r="O5" t="n">
-        <v>31408.59</v>
+        <v>23125.58</v>
       </c>
       <c r="P5" t="n">
-        <v>21948.75</v>
+        <v>18294.78</v>
       </c>
       <c r="Q5" t="n">
-        <v>6873.94</v>
+        <v>3854.22</v>
       </c>
       <c r="R5" t="n">
         <v>1384.74</v>
       </c>
       <c r="S5" t="inlineStr"/>
       <c r="T5" t="n">
-        <v>27662.1</v>
+        <v>20321.23</v>
       </c>
       <c r="U5" t="inlineStr"/>
       <c r="V5" t="n">
-        <v>203575.09</v>
+        <v>94349.39</v>
       </c>
       <c r="W5" t="n">
         <v>5506.66</v>
       </c>
       <c r="X5" t="n">
-        <v>9351.110000000001</v>
+        <v>7215.56</v>
       </c>
       <c r="Y5" t="n">
         <v>3637.01</v>
@@ -847,76 +819,72 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.21</v>
+        <v>0.06</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.04</v>
-      </c>
+        <v>1.25</v>
+      </c>
+      <c r="D6" t="inlineStr"/>
       <c r="E6" t="n">
-        <v>1.62</v>
+        <v>4.03</v>
       </c>
       <c r="F6" t="n">
-        <v>11.21</v>
+        <v>20.11</v>
       </c>
       <c r="G6" t="n">
-        <v>1.88</v>
+        <v>4.63</v>
       </c>
       <c r="H6" t="n">
-        <v>1.74</v>
+        <v>3.38</v>
       </c>
       <c r="I6" t="n">
-        <v>0.5</v>
+        <v>1.18</v>
       </c>
       <c r="J6" t="n">
-        <v>1.58</v>
+        <v>3.94</v>
       </c>
       <c r="K6" t="n">
-        <v>2.92</v>
+        <v>5.38</v>
       </c>
       <c r="L6" t="n">
         <v>32.41</v>
       </c>
-      <c r="M6" t="n">
-        <v>0.05</v>
-      </c>
+      <c r="M6" t="inlineStr"/>
       <c r="N6" t="n">
-        <v>0.41</v>
+        <v>1.02</v>
       </c>
       <c r="O6" t="n">
-        <v>5.91</v>
+        <v>10.83</v>
       </c>
       <c r="P6" t="n">
-        <v>4.13</v>
+        <v>8.57</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.29</v>
+        <v>1.81</v>
       </c>
       <c r="R6" t="n">
-        <v>0.26</v>
+        <v>0.65</v>
       </c>
       <c r="S6" t="inlineStr"/>
       <c r="T6" t="n">
-        <v>5.21</v>
+        <v>9.52</v>
       </c>
       <c r="U6" t="inlineStr"/>
       <c r="V6" t="n">
-        <v>38.32</v>
+        <v>44.19</v>
       </c>
       <c r="W6" t="n">
-        <v>1.04</v>
+        <v>2.58</v>
       </c>
       <c r="X6" t="n">
-        <v>1.76</v>
+        <v>3.38</v>
       </c>
       <c r="Y6" t="n">
-        <v>0.68</v>
+        <v>1.7</v>
       </c>
       <c r="Z6" t="inlineStr"/>
       <c r="AA6" t="n">
-        <v>0.05</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="7">
@@ -926,69 +894,65 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>378.16</v>
+        <v>133.35</v>
       </c>
       <c r="C7" t="n">
         <v>295.7</v>
       </c>
-      <c r="D7" t="n">
-        <v>208.55</v>
-      </c>
+      <c r="D7" t="inlineStr"/>
       <c r="E7" t="n">
         <v>614.9299999999999</v>
       </c>
       <c r="F7" t="n">
-        <v>394.52</v>
+        <v>408.86</v>
       </c>
       <c r="G7" t="n">
-        <v>587.91</v>
+        <v>618.36</v>
       </c>
       <c r="H7" t="n">
-        <v>299</v>
+        <v>300.35</v>
       </c>
       <c r="I7" t="n">
-        <v>297.55</v>
+        <v>313.89</v>
       </c>
       <c r="J7" t="n">
         <v>443.02</v>
       </c>
       <c r="K7" t="n">
-        <v>646.51</v>
+        <v>574.77</v>
       </c>
       <c r="L7" t="n">
         <v>266.14</v>
       </c>
-      <c r="M7" t="n">
-        <v>250.24</v>
-      </c>
+      <c r="M7" t="inlineStr"/>
       <c r="N7" t="n">
         <v>309.88</v>
       </c>
       <c r="O7" t="n">
-        <v>392.61</v>
+        <v>391.96</v>
       </c>
       <c r="P7" t="n">
-        <v>665.11</v>
+        <v>630.85</v>
       </c>
       <c r="Q7" t="n">
-        <v>687.39</v>
+        <v>481.78</v>
       </c>
       <c r="R7" t="n">
         <v>461.58</v>
       </c>
       <c r="S7" t="inlineStr"/>
       <c r="T7" t="n">
-        <v>531.96</v>
+        <v>534.77</v>
       </c>
       <c r="U7" t="inlineStr"/>
       <c r="V7" t="n">
-        <v>474.53</v>
+        <v>693.75</v>
       </c>
       <c r="W7" t="n">
         <v>1101.33</v>
       </c>
       <c r="X7" t="n">
-        <v>550.0700000000001</v>
+        <v>481.04</v>
       </c>
       <c r="Y7" t="n">
         <v>727.4</v>
@@ -1010,9 +974,7 @@
       <c r="C8" t="n">
         <v>283.63</v>
       </c>
-      <c r="D8" t="n">
-        <v>208.55</v>
-      </c>
+      <c r="D8" t="inlineStr"/>
       <c r="E8" t="n">
         <v>1768.54</v>
       </c>
@@ -1037,9 +999,7 @@
       <c r="L8" t="n">
         <v>39.62</v>
       </c>
-      <c r="M8" t="n">
-        <v>250.24</v>
-      </c>
+      <c r="M8" t="inlineStr"/>
       <c r="N8" t="n">
         <v>283.63</v>
       </c>
@@ -1106,64 +1066,6 @@
       <c r="Z9" t="inlineStr"/>
       <c r="AA9" t="inlineStr"/>
     </row>
-    <row r="10">
-      <c r="A10" t="inlineStr"/>
-      <c r="B10" t="inlineStr"/>
-      <c r="C10" t="inlineStr"/>
-      <c r="D10" t="inlineStr"/>
-      <c r="E10" t="inlineStr"/>
-      <c r="F10" t="inlineStr"/>
-      <c r="G10" t="inlineStr"/>
-      <c r="H10" t="inlineStr"/>
-      <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="inlineStr"/>
-      <c r="N10" t="inlineStr"/>
-      <c r="O10" t="inlineStr"/>
-      <c r="P10" t="inlineStr"/>
-      <c r="Q10" t="inlineStr"/>
-      <c r="R10" t="inlineStr"/>
-      <c r="S10" t="inlineStr"/>
-      <c r="T10" t="inlineStr"/>
-      <c r="U10" t="inlineStr"/>
-      <c r="V10" t="inlineStr"/>
-      <c r="W10" t="inlineStr"/>
-      <c r="X10" t="inlineStr"/>
-      <c r="Y10" t="inlineStr"/>
-      <c r="Z10" t="inlineStr"/>
-      <c r="AA10" t="inlineStr"/>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr"/>
-      <c r="B11" t="inlineStr"/>
-      <c r="C11" t="inlineStr"/>
-      <c r="D11" t="inlineStr"/>
-      <c r="E11" t="inlineStr"/>
-      <c r="F11" t="inlineStr"/>
-      <c r="G11" t="inlineStr"/>
-      <c r="H11" t="inlineStr"/>
-      <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="inlineStr"/>
-      <c r="N11" t="inlineStr"/>
-      <c r="O11" t="inlineStr"/>
-      <c r="P11" t="inlineStr"/>
-      <c r="Q11" t="inlineStr"/>
-      <c r="R11" t="inlineStr"/>
-      <c r="S11" t="inlineStr"/>
-      <c r="T11" t="inlineStr"/>
-      <c r="U11" t="inlineStr"/>
-      <c r="V11" t="inlineStr"/>
-      <c r="W11" t="inlineStr"/>
-      <c r="X11" t="inlineStr"/>
-      <c r="Y11" t="inlineStr"/>
-      <c r="Z11" t="inlineStr"/>
-      <c r="AA11" t="inlineStr"/>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
